--- a/Analyses/ponderation_sondage.xlsx
+++ b/Analyses/ponderation_sondage.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>xdroite</t>
   </si>
@@ -92,17 +95,44 @@
     <t xml:space="preserve">Transfert de voix </t>
   </si>
   <si>
-    <t xml:space="preserve">Pourcentage de transfert F-&gt;M : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pourcentage de transfert F-&gt;MLP : </t>
+    <t>transfert Fillon -&gt; macron</t>
+  </si>
+  <si>
+    <t>transfert Fillon MLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourcentage de transfert F-&gt;M </t>
+  </si>
+  <si>
+    <t>Pourcentage de transfert F-&gt;MLP</t>
+  </si>
+  <si>
+    <t>Candidat</t>
+  </si>
+  <si>
+    <t>bayrou -&gt; fillon</t>
+  </si>
+  <si>
+    <t>centre</t>
+  </si>
+  <si>
+    <t>Transfert de voix Bayrou</t>
+  </si>
+  <si>
+    <t>prediction sans centre</t>
+  </si>
+  <si>
+    <t>prediction avec centre</t>
+  </si>
+  <si>
+    <t>Bayrou -&gt; candidats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +140,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -127,18 +183,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -413,519 +680,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3">
+        <v>23.46</v>
+      </c>
+      <c r="D2" s="4">
+        <v>25.96</v>
+      </c>
+      <c r="E2" s="4">
+        <v>40.25</v>
+      </c>
+      <c r="F2" s="25">
+        <v>10.31</v>
+      </c>
+      <c r="G2" s="5">
+        <f>C2+D2+E2+F2</f>
+        <v>99.98</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="23">
+        <v>42836</v>
+      </c>
+      <c r="I3" s="6">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6">
+        <v>13</v>
+      </c>
+      <c r="K3" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="23">
+        <v>42836</v>
+      </c>
+      <c r="I4" s="6">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="23">
+        <v>42831</v>
+      </c>
+      <c r="I5" s="6">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="23">
+        <v>42832</v>
+      </c>
+      <c r="I6" s="6">
+        <v>13</v>
+      </c>
+      <c r="J6" s="6">
         <v>17</v>
       </c>
-      <c r="C2">
-        <v>15.48</v>
-      </c>
-      <c r="D2">
-        <v>41.67</v>
-      </c>
-      <c r="E2">
-        <v>42.85</v>
-      </c>
-      <c r="F2">
-        <f>C2+D2+E2</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="23">
+        <v>42830</v>
+      </c>
+      <c r="I7" s="6">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="23">
+        <v>42828</v>
+      </c>
+      <c r="I8" s="6">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="20">
         <f>SUM(C4:C14)</f>
-        <v>25.5</v>
-      </c>
-      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20">
         <f>SUM(D5:D8)</f>
-        <v>22.5</v>
-      </c>
-      <c r="E15">
+        <v>24.5</v>
+      </c>
+      <c r="E15" s="20">
         <f>SUM(E9:E14)</f>
         <v>52</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="21">
         <f>SUM(C15:E15)</f>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C4*100/C$15</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <f>C4*100/C15</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
         <f>D5*100/D$15</f>
-        <v>2.2222222222222223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D21" si="0">D6*100/D$15</f>
-        <v>17.777777777777779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
+        <f>D6*100/D$15</f>
+        <v>16.326530612244898</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <f t="shared" ref="D19:D21" si="0">D7*100/D$15</f>
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>75.555555555555557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+        <v>77.551020408163268</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E22">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8">
         <f>E9*100/E$15</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+        <v>44.230769230769234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E23">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8">
         <f t="shared" ref="E23:E27" si="1">E10*100/E$15</f>
-        <v>19.23076923076923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+        <v>16.346153846153847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8">
         <f t="shared" si="1"/>
-        <v>28.846153846153847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+        <v>35.57692307692308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8">
         <f t="shared" si="1"/>
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0.96153846153846156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E27">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="20">
         <f>SUM(C17:C27)</f>
         <v>100</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="20">
         <f>SUM(D17:D27)</f>
         <v>100</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="21">
         <f>SUM(E17:E27)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C30">
-        <f>C17*C2/100</f>
-        <v>15.48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C30" s="1">
+        <f>C17*C$2/100</f>
+        <v>23.46</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2">
+        <f>SUM(C30:E30)</f>
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="C31" s="7">
+        <f t="shared" ref="C31:C32" si="2">C18*C$2/100</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
         <f>D18*D$2/100</f>
-        <v>0.92600000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+        <v>0.52979591836734696</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8">
+        <f t="shared" ref="F31:F40" si="3">SUM(C31:E31)</f>
+        <v>0.52979591836734696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D32">
-        <f t="shared" ref="D32:D34" si="2">D19*D$2/100</f>
-        <v>7.4080000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" ref="D32:D34" si="4">D19*D$2/100</f>
+        <v>4.2383673469387757</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8">
+        <f t="shared" si="3"/>
+        <v>4.2383673469387757</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>1.8520000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0595918367346939</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0595918367346939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>31.484000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7">
+        <f t="shared" si="4"/>
+        <v>20.132244897959186</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8">
+        <f t="shared" si="3"/>
+        <v>20.132244897959186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E35">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7">
         <f>E22*E$2/100</f>
-        <v>21.425000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+        <v>17.802884615384617</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="3"/>
+        <v>17.802884615384617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E36">
-        <f t="shared" ref="E36:E40" si="3">E23*E$2/100</f>
-        <v>8.240384615384615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
+        <f t="shared" ref="E36:E40" si="5">E23*E$2/100</f>
+        <v>6.5793269230769234</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="3"/>
+        <v>6.5793269230769234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E37">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7">
+        <f t="shared" si="5"/>
+        <v>14.31971153846154</v>
+      </c>
+      <c r="F37" s="8">
         <f t="shared" si="3"/>
-        <v>12.360576923076923</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+        <v>14.31971153846154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E38">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1610576923076923</v>
+      </c>
+      <c r="F38" s="8">
         <f t="shared" si="3"/>
-        <v>0.4120192307692308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+        <v>1.1610576923076923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E39">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <f t="shared" si="5"/>
+        <v>0.38701923076923078</v>
+      </c>
+      <c r="F39" s="8">
         <f t="shared" si="3"/>
-        <v>0.4120192307692308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+        <v>0.38701923076923078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E40">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="20">
         <f>SUM(C30:C40)</f>
-        <v>15.48</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ref="D41:E41" si="4">SUM(D30:D40)</f>
-        <v>41.67</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="4"/>
-        <v>42.850000000000009</v>
-      </c>
-      <c r="F41">
+        <v>23.46</v>
+      </c>
+      <c r="D41" s="20">
+        <f t="shared" ref="D41:E41" si="6">SUM(D30:D40)</f>
+        <v>25.96</v>
+      </c>
+      <c r="E41" s="20">
+        <f t="shared" si="6"/>
+        <v>40.250000000000007</v>
+      </c>
+      <c r="F41" s="5">
         <f>SUM(C41:E41)</f>
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+        <v>89.670000000000016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C43">
-        <f>C41+(G48*D34/100)</f>
-        <v>19.25808</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="C43" s="2">
+        <f>F30+(E49*D34/100)</f>
+        <v>26.043638095238094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C44">
-        <v>0.92600000000000005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C44" s="8">
+        <f>F31</f>
+        <v>0.52979591836734696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C45">
-        <v>7.4080000000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="C45" s="8">
+        <f>F32</f>
+        <v>4.2383673469387757</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C46">
-        <v>1.8520000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C46" s="8">
+        <f>F33</f>
+        <v>1.0595918367346939</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C47">
-        <f>D34*(1-(G47+G48)/100)</f>
-        <v>20.779439999999997</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C47" s="8">
+        <f>F34*(1-(E47+E49)/100)</f>
+        <v>14.226786394557825</v>
+      </c>
+      <c r="E47" s="7">
+        <f>AVERAGE(I3:I24)</f>
+        <v>16.5</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C48">
-        <f>E35+(22*D34/100)</f>
-        <v>28.351480000000002</v>
-      </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48">
+      <c r="C48" s="8">
+        <f>E35+(E47*D34/100)</f>
+        <v>21.124705023547882</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="8">
+        <f>F36</f>
+        <v>6.5793269230769234</v>
+      </c>
+      <c r="E49" s="7">
+        <f>AVERAGE(J3:J18)</f>
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="8">
+        <f>F37</f>
+        <v>14.31971153846154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C51" s="8">
+        <f>F38</f>
+        <v>1.1610576923076923</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="8">
+        <f>F39</f>
+        <v>0.38701923076923078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="8">
+        <f>F40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="21">
+        <f>SUM(C43:C53)</f>
+        <v>89.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2">
+        <f>F30+(E56*F$2/100)</f>
+        <v>23.872400000000003</v>
+      </c>
+      <c r="E56" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" ref="C57:C66" si="7">F31+(E57*F$2/100)</f>
+        <v>0.52979591836734696</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6507673469387756</v>
+      </c>
+      <c r="E58" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2657918367346939</v>
+      </c>
+      <c r="E59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="7"/>
+        <v>22.194244897959187</v>
+      </c>
+      <c r="E60" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="7"/>
+        <v>22.957884615384618</v>
+      </c>
+      <c r="E61" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C49">
-        <v>8.240384615384615</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C62" s="2">
+        <f t="shared" si="7"/>
+        <v>7.3010269230769236</v>
+      </c>
+      <c r="E62" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
-        <v>12.360576923076923</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="C63" s="2">
+        <f t="shared" si="7"/>
+        <v>15.55691153846154</v>
+      </c>
+      <c r="E63" s="10">
         <v>12</v>
       </c>
-      <c r="C51">
-        <v>0.4120192307692308</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2641576923076923</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C52">
-        <v>0.4120192307692308</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="C65" s="2">
+        <f t="shared" si="7"/>
+        <v>0.38701923076923078</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C53">
+      <c r="C66" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C54">
-        <f>SUM(C43:C53)</f>
-        <v>99.999999999999986</v>
+      <c r="C67" s="21">
+        <f>SUM(C56:C66)</f>
+        <v>99.97999999999999</v>
+      </c>
+      <c r="E67" s="11">
+        <f>SUM(E56:E66)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analyses/ponderation_sondage.xlsx
+++ b/Analyses/ponderation_sondage.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>24</v>
+        <v>22.42</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -815,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7">
-        <v>19</v>
+        <v>19.41</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -879,7 +879,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7">
-        <v>23</v>
+        <v>23.25</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -891,7 +891,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -903,7 +903,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7">
-        <v>18.5</v>
+        <v>19.25</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -915,7 +915,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -939,7 +939,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -950,19 +950,19 @@
       </c>
       <c r="C15" s="20">
         <f>SUM(C4:C14)</f>
-        <v>24</v>
+        <v>22.42</v>
       </c>
       <c r="D15" s="20">
         <f>SUM(D5:D8)</f>
-        <v>24.5</v>
+        <v>24.990000000000002</v>
       </c>
       <c r="E15" s="20">
         <f>SUM(E9:E14)</f>
-        <v>52</v>
+        <v>52.989999999999995</v>
       </c>
       <c r="F15" s="21">
         <f>SUM(C15:E15)</f>
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
       </c>
       <c r="C17" s="1">
         <f>C4*100/C$15</f>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -987,7 +987,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7">
         <f>D5*100/D$15</f>
-        <v>2.0408163265306123</v>
+        <v>4.0016006402561022</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -999,7 +999,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7">
         <f>D6*100/D$15</f>
-        <v>16.326530612244898</v>
+        <v>14.005602240896357</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7">
         <f t="shared" ref="D19:D21" si="0">D7*100/D$15</f>
-        <v>4.0816326530612246</v>
+        <v>4.32172869147659</v>
       </c>
       <c r="E20" s="8"/>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>77.551020408163268</v>
+        <v>77.67106842737094</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -1036,7 +1036,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="8">
         <f>E9*100/E$15</f>
-        <v>44.230769230769234</v>
+        <v>43.876203057180604</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="8">
         <f t="shared" ref="E23:E27" si="1">E10*100/E$15</f>
-        <v>16.346153846153847</v>
+        <v>15.097188148707305</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="8">
         <f t="shared" si="1"/>
-        <v>35.57692307692308</v>
+        <v>36.327608982826952</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="8">
         <f t="shared" si="1"/>
-        <v>2.8846153846153846</v>
+        <v>3.1326665408567655</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="8">
         <f t="shared" si="1"/>
-        <v>0.96153846153846156</v>
+        <v>0.94357425929420657</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.62275901113417631</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,15 +1106,15 @@
       </c>
       <c r="C28" s="20">
         <f>SUM(C17:C27)</f>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="D28" s="20">
         <f>SUM(D17:D27)</f>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="E28" s="21">
         <f>SUM(E17:E27)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,13 +1126,13 @@
       </c>
       <c r="C30" s="1">
         <f>C17*C$2/100</f>
-        <v>23.46</v>
+        <v>23.459999999999994</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2">
         <f>SUM(C30:E30)</f>
-        <v>23.46</v>
+        <v>23.459999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="D31" s="7">
         <f>D18*D$2/100</f>
-        <v>0.52979591836734696</v>
+        <v>1.0388155262104841</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8">
         <f t="shared" ref="F31:F40" si="3">SUM(C31:E31)</f>
-        <v>0.52979591836734696</v>
+        <v>1.0388155262104841</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,12 +1165,12 @@
       </c>
       <c r="D32" s="7">
         <f t="shared" ref="D32:D34" si="4">D19*D$2/100</f>
-        <v>4.2383673469387757</v>
+        <v>3.6358543417366946</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="8">
         <f t="shared" si="3"/>
-        <v>4.2383673469387757</v>
+        <v>3.6358543417366946</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,12 +1181,12 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7">
         <f t="shared" si="4"/>
-        <v>1.0595918367346939</v>
+        <v>1.1219207683073227</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="8">
         <f t="shared" si="3"/>
-        <v>1.0595918367346939</v>
+        <v>1.1219207683073227</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,12 +1197,12 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7">
         <f t="shared" si="4"/>
-        <v>20.132244897959186</v>
+        <v>20.163409363745497</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="8">
         <f t="shared" si="3"/>
-        <v>20.132244897959186</v>
+        <v>20.163409363745497</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,11 +1214,11 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7">
         <f>E22*E$2/100</f>
-        <v>17.802884615384617</v>
+        <v>17.660171730515192</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="3"/>
-        <v>17.802884615384617</v>
+        <v>17.660171730515192</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,11 +1230,11 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7">
         <f t="shared" ref="E36:E40" si="5">E23*E$2/100</f>
-        <v>6.5793269230769234</v>
+        <v>6.0766182298546907</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="3"/>
-        <v>6.5793269230769234</v>
+        <v>6.0766182298546907</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,11 +1246,11 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7">
         <f t="shared" si="5"/>
-        <v>14.31971153846154</v>
+        <v>14.621862615587848</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="3"/>
-        <v>14.31971153846154</v>
+        <v>14.621862615587848</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1262,11 +1262,11 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7">
         <f t="shared" si="5"/>
-        <v>1.1610576923076923</v>
+        <v>1.260898282694848</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="3"/>
-        <v>1.1610576923076923</v>
+        <v>1.260898282694848</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,11 +1278,11 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7">
         <f t="shared" si="5"/>
-        <v>0.38701923076923078</v>
+        <v>0.37978863936591817</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="3"/>
-        <v>0.38701923076923078</v>
+        <v>0.37978863936591817</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,11 +1294,11 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.25066050198150597</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25066050198150597</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="C41" s="20">
         <f>SUM(C30:C40)</f>
-        <v>23.46</v>
+        <v>23.459999999999994</v>
       </c>
       <c r="D41" s="20">
         <f t="shared" ref="D41:E41" si="6">SUM(D30:D40)</f>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="F41" s="5">
         <f>SUM(C41:E41)</f>
-        <v>89.670000000000016</v>
+        <v>89.67</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="C43" s="2">
         <f>F30+(E49*D34/100)</f>
-        <v>26.043638095238094</v>
+        <v>26.047637535013997</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C44" s="8">
         <f>F31</f>
-        <v>0.52979591836734696</v>
+        <v>1.0388155262104841</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C45" s="8">
         <f>F32</f>
-        <v>4.2383673469387757</v>
+        <v>3.6358543417366946</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C46" s="8">
         <f>F33</f>
-        <v>1.0595918367346939</v>
+        <v>1.1219207683073227</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>24</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C47" s="8">
         <f>F34*(1-(E47+E49)/100)</f>
-        <v>14.226786394557825</v>
+        <v>14.248809283713484</v>
       </c>
       <c r="E47" s="7">
         <f>AVERAGE(I3:I24)</f>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C48" s="8">
         <f>E35+(E47*D34/100)</f>
-        <v>21.124705023547882</v>
+        <v>20.987134275533197</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>25</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C49" s="8">
         <f>F36</f>
-        <v>6.5793269230769234</v>
+        <v>6.0766182298546907</v>
       </c>
       <c r="E49" s="7">
         <f>AVERAGE(J3:J18)</f>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C50" s="8">
         <f>F37</f>
-        <v>14.31971153846154</v>
+        <v>14.621862615587848</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C51" s="8">
         <f>F38</f>
-        <v>1.1610576923076923</v>
+        <v>1.260898282694848</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="C52" s="8">
         <f>F39</f>
-        <v>0.38701923076923078</v>
+        <v>0.37978863936591817</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C53" s="8">
         <f>F40</f>
-        <v>0</v>
+        <v>0.25066050198150597</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C54" s="21">
         <f>SUM(C43:C53)</f>
-        <v>89.67</v>
+        <v>89.669999999999973</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C56" s="2">
         <f>F30+(E56*F$2/100)</f>
-        <v>23.872400000000003</v>
+        <v>23.872399999999995</v>
       </c>
       <c r="E56" s="10">
         <v>4</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" ref="C57:C66" si="7">F31+(E57*F$2/100)</f>
-        <v>0.52979591836734696</v>
+        <v>1.0388155262104841</v>
       </c>
       <c r="E57" s="10">
         <v>0</v>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" si="7"/>
-        <v>4.6507673469387756</v>
+        <v>4.048254341736695</v>
       </c>
       <c r="E58" s="10">
         <v>4</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" si="7"/>
-        <v>1.2657918367346939</v>
+        <v>1.3281207683073226</v>
       </c>
       <c r="E59" s="10">
         <v>2</v>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" si="7"/>
-        <v>22.194244897959187</v>
+        <v>22.225409363745499</v>
       </c>
       <c r="E60" s="10">
         <v>20</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" si="7"/>
-        <v>22.957884615384618</v>
+        <v>22.815171730515193</v>
       </c>
       <c r="E61" s="10">
         <v>50</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" si="7"/>
-        <v>7.3010269230769236</v>
+        <v>6.7983182298546909</v>
       </c>
       <c r="E62" s="10">
         <v>7</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" si="7"/>
-        <v>15.55691153846154</v>
+        <v>15.859062615587847</v>
       </c>
       <c r="E63" s="10">
         <v>12</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" si="7"/>
-        <v>1.2641576923076923</v>
+        <v>1.363998282694848</v>
       </c>
       <c r="E64" s="10">
         <v>1</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" si="7"/>
-        <v>0.38701923076923078</v>
+        <v>0.37978863936591817</v>
       </c>
       <c r="E65" s="10">
         <v>0</v>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.25066050198150597</v>
       </c>
       <c r="E66" s="10">
         <v>0</v>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C67" s="21">
         <f>SUM(C56:C66)</f>
-        <v>99.97999999999999</v>
+        <v>99.979999999999976</v>
       </c>
       <c r="E67" s="11">
         <f>SUM(E56:E66)</f>

--- a/Analyses/ponderation_sondage.xlsx
+++ b/Analyses/ponderation_sondage.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7">
-        <f t="shared" ref="D19:D21" si="0">D7*100/D$15</f>
+        <f t="shared" ref="D20:D21" si="0">D7*100/D$15</f>
         <v>4.32172869147659</v>
       </c>
       <c r="E20" s="8"/>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="10" t="s">
         <v>8</v>
@@ -1414,7 +1414,7 @@
         <v>12.833333333333334</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="10" t="s">
         <v>9</v>
@@ -1424,7 +1424,7 @@
         <v>14.621862615587848</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="10" t="s">
         <v>12</v>
@@ -1434,7 +1434,7 @@
         <v>1.260898282694848</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="10" t="s">
         <v>13</v>
@@ -1444,7 +1444,7 @@
         <v>0.37978863936591817</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="11" t="s">
         <v>14</v>
@@ -1454,7 +1454,7 @@
         <v>0.25066050198150597</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="6" t="s">
         <v>16</v>
@@ -1464,12 +1464,12 @@
         <v>89.669999999999973</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E55" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>29</v>
       </c>
@@ -1477,14 +1477,27 @@
         <v>5</v>
       </c>
       <c r="C56" s="2">
-        <f>F30+(E56*F$2/100)</f>
+        <f>F30+(F56*F$2/100)</f>
         <v>23.872399999999995</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56">
+        <f>AVERAGE(F56:K56)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F56" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>31</v>
       </c>
@@ -1492,131 +1505,246 @@
         <v>11</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" ref="C57:C66" si="7">F31+(E57*F$2/100)</f>
+        <f>F31+(F57*F$2/100)</f>
         <v>1.0388155262104841</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57">
+        <f t="shared" ref="E57:E67" si="7">AVERAGE(F57:K57)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="2">
+        <f>F32+(F58*F$2/100)</f>
+        <v>4.048254341736695</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="7"/>
-        <v>4.048254341736695</v>
-      </c>
-      <c r="E58" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="F58" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="2">
+        <f>F33+(F59*F$2/100)</f>
+        <v>1.3281207683073226</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="7"/>
-        <v>1.3281207683073226</v>
-      </c>
-      <c r="E59" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="F59" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2">
+        <f>F34+(F60*F$2/100)</f>
+        <v>22.225409363745499</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="7"/>
-        <v>22.225409363745499</v>
-      </c>
-      <c r="E60" s="10">
+        <v>20.25</v>
+      </c>
+      <c r="F60" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>27</v>
+      </c>
+      <c r="H60">
+        <v>16</v>
+      </c>
+      <c r="I60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="2">
+        <f>F35+(F61*F$2/100)</f>
+        <v>22.815171730515193</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="7"/>
-        <v>22.815171730515193</v>
-      </c>
-      <c r="E61" s="10">
+        <v>46</v>
+      </c>
+      <c r="F61" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>36</v>
+      </c>
+      <c r="H61">
+        <v>48</v>
+      </c>
+      <c r="I61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="2">
+        <f>F36+(F62*F$2/100)</f>
+        <v>6.7983182298546909</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="7"/>
-        <v>6.7983182298546909</v>
-      </c>
-      <c r="E62" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="F62" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="2">
+        <f>F37+(F63*F$2/100)</f>
+        <v>15.859062615587847</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="7"/>
-        <v>15.859062615587847</v>
-      </c>
-      <c r="E63" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="7">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63">
+        <v>13</v>
+      </c>
+      <c r="I63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="2">
+        <f>F38+(F64*F$2/100)</f>
+        <v>1.363998282694848</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="7"/>
-        <v>1.363998282694848</v>
-      </c>
-      <c r="E64" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="F64" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="2">
+        <f>F39+(F65*F$2/100)</f>
+        <v>0.37978863936591817</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="7"/>
-        <v>0.37978863936591817</v>
-      </c>
-      <c r="E65" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2">
+        <f>F40+(F66*F$2/100)</f>
+        <v>0.25066050198150597</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="7"/>
-        <v>0.25066050198150597</v>
-      </c>
-      <c r="E66" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="6" t="s">
         <v>16</v>
@@ -1625,8 +1753,24 @@
         <f>SUM(C56:C66)</f>
         <v>99.979999999999976</v>
       </c>
-      <c r="E67" s="11">
-        <f>SUM(E56:E66)</f>
+      <c r="E67">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F67" s="7">
+        <f>SUM(F56:F66)</f>
+        <v>100</v>
+      </c>
+      <c r="G67" s="7">
+        <f>SUM(G56:G66)</f>
+        <v>100</v>
+      </c>
+      <c r="H67" s="7">
+        <f>SUM(H56:H66)</f>
+        <v>100</v>
+      </c>
+      <c r="I67" s="7">
+        <f>SUM(I56:I66)</f>
         <v>100</v>
       </c>
     </row>
